--- a/biology/Médecine/Cerne_(médecine)/Cerne_(médecine).xlsx
+++ b/biology/Médecine/Cerne_(médecine)/Cerne_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerne_(m%C3%A9decine)</t>
+          <t>Cerne_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un cerne (nom masculin[1]), appelé en anatomie sillon jugo-palpébral, est une variation de la coloration de la peau sous l'œil. Contrairement aux croyances, leur cause n'est pas le manque de sommeil. Il s'agit en général de variations de pigmentation ou d'un épiderme particulièrement fin. 
-les cernes donnent au regard un aspect fatigué et vieilli[2]. De nombreuses personnes en sont affectées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cerne (nom masculin), appelé en anatomie sillon jugo-palpébral, est une variation de la coloration de la peau sous l'œil. Contrairement aux croyances, leur cause n'est pas le manque de sommeil. Il s'agit en général de variations de pigmentation ou d'un épiderme particulièrement fin. 
+les cernes donnent au regard un aspect fatigué et vieilli. De nombreuses personnes en sont affectées.
 La déshydratation extra-cellulaire peut être à la cause de cernes.
 Sur les autres projets Wikimedia :
 Cerne, sur Wikimedia Commons
